--- a/Ventas Selact/Pruebas.xlsx
+++ b/Ventas Selact/Pruebas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive\Documentos\GitHub\DevelopPython\Ventas Selact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C15DDB-9780-485C-890F-549F40878D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28A15C-F990-436B-B2EF-E05C673990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>jose Luis Perez</t>
   </si>
@@ -34,13 +35,94 @@
   </si>
   <si>
     <t>juan</t>
+  </si>
+  <si>
+    <t>ANCHESCO MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRES ALEXANDER ROSARIO MOTA </t>
+  </si>
+  <si>
+    <t>CINDY ARIAS</t>
+  </si>
+  <si>
+    <t>EDWARLIN CARDENAS PAREDES</t>
+  </si>
+  <si>
+    <t>FRANCISCO ANTONIO GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENESIS MEJIA </t>
+  </si>
+  <si>
+    <t>JOMER RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JONATHAN HENRIQUEZ </t>
+  </si>
+  <si>
+    <t>JOSE ALEXIS DE LA CRUZ VENTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAREN MATOS </t>
+  </si>
+  <si>
+    <t>LETHECIA  PEREZ TAVERAS</t>
+  </si>
+  <si>
+    <t>MARCOS DARIEL UREÑA DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>RAUL VALOY</t>
+  </si>
+  <si>
+    <t>SELACT CORP</t>
+  </si>
+  <si>
+    <t>VICTOR MORONTA</t>
+  </si>
+  <si>
+    <t>FEDERICO GUZMAN GUZMAN</t>
+  </si>
+  <si>
+    <t>REYNALDO AMORY</t>
+  </si>
+  <si>
+    <t>NELSON BONIFACIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER GUERRERO </t>
+  </si>
+  <si>
+    <t>JORGE SAMUEL UREÑA ALVAREZ</t>
+  </si>
+  <si>
+    <t>ORLANDO GOMEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO CARLOS VASQUEZ VARGAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUGENIO CASTILLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARIEL RAMIREZ DE LOS SANTOS </t>
+  </si>
+  <si>
+    <t>JUAN BERON</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>jose perez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +130,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,7 +165,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -78,10 +174,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +484,14 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,9 +504,10 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -400,8 +516,406 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" t="e">
+      <c r="D3" s="1" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1466A0B8-DC8C-42AB-A753-F6194EDDE150}">
+  <dimension ref="A3:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>287461.56000000006</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>238468.52999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7">
+        <v>453238.67999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>334574.83999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7">
+        <v>61087.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>564963.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>225553.85000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1274616.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>299180.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
+        <v>287940.40000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
+        <v>362215.81999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>386404.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7">
+        <v>524620.16999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>134975.41999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1557976.3900000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <v>514210.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7">
+        <v>789954.23999999987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>667977.35999999987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>473235.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7">
+        <v>198476.57999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7">
+        <v>261380.37999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>467261.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>131478.36000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
+        <v>71923.709999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>92573.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6">
+        <v>492</v>
+      </c>
+      <c r="C28" s="8">
+        <v>10661749.5</v>
       </c>
     </row>
   </sheetData>

--- a/Ventas Selact/Pruebas.xlsx
+++ b/Ventas Selact/Pruebas.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive\Documentos\GitHub\DevelopPython\Ventas Selact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28A15C-F990-436B-B2EF-E05C673990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1FDFF-8C40-4E76-BDB8-D54B47BAB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>jose Luis Perez</t>
   </si>
@@ -116,13 +127,16 @@
   </si>
   <si>
     <t>jose perez</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +146,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,10 +196,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -186,10 +207,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,128 +502,79 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="e">
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1466A0B8-DC8C-42AB-A753-F6194EDDE150}">
   <dimension ref="A3:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -622,21 +593,21 @@
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>287461.56000000006</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -644,277 +615,277 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>17</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
         <v>238468.52999999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="1">
         <v>453238.67999999993</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>334574.83999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>61087.14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="1">
         <v>564963.62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="1">
         <v>225553.85000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>36</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>1274616.81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="1">
         <v>299180.88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>21</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="1">
         <v>287940.40000000008</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>362215.81999999995</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>21</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <v>386404.15</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>37</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <v>524620.16999999993</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>19</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="1">
         <v>134975.41999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>36</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="1">
         <v>1557976.3900000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>25</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="1">
         <v>514210.08</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>42</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="1">
         <v>789954.23999999987</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>28</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="1">
         <v>667977.35999999987</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="1">
         <v>473235.28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="1">
         <v>198476.57999999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="1">
         <v>261380.37999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>17</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="1">
         <v>467261.26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>9</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="1">
         <v>131478.36000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>8</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="1">
         <v>71923.709999999992</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="1">
         <v>92573.99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>492</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <v>10661749.5</v>
       </c>
     </row>
